--- a/Tables/2_3_3_chi_square_tests_contr_ear.xlsx
+++ b/Tables/2_3_3_chi_square_tests_contr_ear.xlsx
@@ -509,26 +509,24 @@
         <v>34</v>
       </c>
       <c r="F2" t="n">
-        <v>70.83333333333333</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>14</v>
       </c>
       <c r="H2" t="n">
-        <v>29.16666666666667</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>22.97918552036199</v>
+        <v>26.5323113860929</v>
       </c>
       <c r="J2" t="n">
-        <v>0.5019</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.6732</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Non-significant</t>
+          <t>Significant</t>
         </is>
       </c>
     </row>
@@ -551,22 +549,18 @@
         <v>32</v>
       </c>
       <c r="F3" t="n">
-        <v>66.67</v>
+        <v>94.12</v>
       </c>
       <c r="G3" t="n">
         <v>3</v>
       </c>
       <c r="H3" t="n">
-        <v>6.25</v>
+        <v>21.43</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>Non-significant</t>
-        </is>
-      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -587,22 +581,18 @@
         <v>2</v>
       </c>
       <c r="F4" t="n">
-        <v>4.17</v>
+        <v>5.88</v>
       </c>
       <c r="G4" t="n">
         <v>11</v>
       </c>
       <c r="H4" t="n">
-        <v>22.92</v>
+        <v>78.56999999999999</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>Non-significant</t>
-        </is>
-      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -623,23 +613,21 @@
         <v>34</v>
       </c>
       <c r="F5" t="n">
-        <v>70.83333333333333</v>
+        <v>100</v>
       </c>
       <c r="G5" t="n">
         <v>14</v>
       </c>
       <c r="H5" t="n">
-        <v>29.16666666666667</v>
+        <v>100</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0175374497625136</v>
+        <v>0.2027329192546581</v>
       </c>
       <c r="J5" t="n">
-        <v>0.6732</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.6732</v>
-      </c>
+        <v>0.7536</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr">
         <is>
           <t>Non-significant</t>
@@ -665,22 +653,18 @@
         <v>17</v>
       </c>
       <c r="F6" t="n">
-        <v>35.42</v>
+        <v>50</v>
       </c>
       <c r="G6" t="n">
         <v>8</v>
       </c>
       <c r="H6" t="n">
-        <v>16.67</v>
+        <v>57.14</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>Non-significant</t>
-        </is>
-      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -701,22 +685,18 @@
         <v>17</v>
       </c>
       <c r="F7" t="n">
-        <v>35.42</v>
+        <v>50</v>
       </c>
       <c r="G7" t="n">
         <v>6</v>
       </c>
       <c r="H7" t="n">
-        <v>12.5</v>
+        <v>42.86</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>Non-significant</t>
-        </is>
-      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
